--- a/ЗАВОДЫ/МИРАТОРГ/2025/12,25/08,12,25 Мираторг КИ Ташкент/Доп заказ новинки предложение Мираторг на сертификацию 2026 МосПродТорг.xlsx
+++ b/ЗАВОДЫ/МИРАТОРГ/2025/12,25/08,12,25 Мираторг КИ Ташкент/Доп заказ новинки предложение Мираторг на сертификацию 2026 МосПродТорг.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olga1\OneDrive\Desktop\Мираторг\сертификация 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\МИРАТОРГ\2025\12,25\08,12,25 Мираторг КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E16422-D917-4724-AE97-01678BB1E560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB85001-1BEE-446B-92F3-29E284ADBAD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$V$29</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -320,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -401,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -684,41 +684,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE527F1-4119-446D-84ED-8555E6DBF503}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R36" sqref="R36"/>
+      <selection pane="bottomRight" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="48.21875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="3" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="6" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" style="34" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="13.21875" style="3" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9.33203125" style="3" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="3"/>
-    <col min="21" max="16384" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="13.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" style="34" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="3"/>
+    <col min="21" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="11" customFormat="1" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="11" customFormat="1" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
@@ -778,7 +778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1010024328</v>
       </c>
@@ -835,7 +835,7 @@
       </c>
       <c r="T2" s="21"/>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1010015952</v>
       </c>
@@ -892,7 +892,7 @@
       </c>
       <c r="T3" s="21"/>
     </row>
-    <row r="4" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1010027650</v>
       </c>
@@ -949,7 +949,7 @@
       </c>
       <c r="T4" s="21"/>
     </row>
-    <row r="5" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1010032953</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>1010032954</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>1010027653</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1010029655</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>1010025585</v>
       </c>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="T9" s="21"/>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>1010032952</v>
       </c>
@@ -1301,7 +1301,7 @@
       <c r="U10"/>
       <c r="V10"/>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>1010033736</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="U11"/>
       <c r="V11"/>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>1010033329</v>
       </c>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="T12" s="21"/>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>1010033335</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="T13" s="21"/>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>1010033325</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="T14" s="21"/>
     </row>
-    <row r="15" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1010033332</v>
       </c>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="T15" s="21"/>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>1010016111</v>
       </c>
@@ -1621,7 +1621,7 @@
       <c r="R16" s="2"/>
       <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>1010016092</v>
       </c>
@@ -1657,7 +1657,7 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
     </row>
-    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>1010030635</v>
       </c>
@@ -1713,8 +1713,15 @@
       <c r="T18" s="31">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="V18">
+        <f>U18*T18</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>1010032754</v>
       </c>
@@ -1772,8 +1779,15 @@
       <c r="T19" s="31">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="35">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ref="V19:V29" si="2">U19*T19</f>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1010023293</v>
       </c>
@@ -1831,8 +1845,15 @@
       <c r="T20" s="31">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="35">
+        <v>0.4</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>1010032041</v>
       </c>
@@ -1888,8 +1909,15 @@
       <c r="T21" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>1010031576</v>
       </c>
@@ -1945,8 +1973,15 @@
       <c r="T22" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U22" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>1010032043</v>
       </c>
@@ -2002,10 +2037,15 @@
       <c r="T23" s="31">
         <v>50</v>
       </c>
-      <c r="U23"/>
-      <c r="V23"/>
-    </row>
-    <row r="24" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="35">
+        <v>0.1</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>1010032675</v>
       </c>
@@ -2063,10 +2103,15 @@
       <c r="T24" s="31">
         <v>12</v>
       </c>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-    </row>
-    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>1010031327</v>
       </c>
@@ -2124,10 +2169,15 @@
       <c r="T25" s="31">
         <v>12</v>
       </c>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-    </row>
-    <row r="26" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>1010031142</v>
       </c>
@@ -2185,8 +2235,15 @@
       <c r="T26" s="31">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>1010031149</v>
       </c>
@@ -2242,10 +2299,15 @@
       <c r="T27" s="31">
         <v>12</v>
       </c>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-    </row>
-    <row r="28" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U27" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>1010032755</v>
       </c>
@@ -2303,10 +2365,15 @@
       <c r="T28" s="31">
         <v>180</v>
       </c>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-    </row>
-    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U28" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>1010033903</v>
       </c>
@@ -2363,6 +2430,19 @@
       </c>
       <c r="T29" s="31">
         <v>12</v>
+      </c>
+      <c r="U29" s="35">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V30" s="6">
+        <f>SUBTOTAL(9,V18:V29)</f>
+        <v>144.60000000000002</v>
       </c>
     </row>
   </sheetData>
